--- a/Recode_To_Text-License of the library you are using/Licenses.xlsx
+++ b/Recode_To_Text-License of the library you are using/Licenses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -49,6 +49,36 @@
     <x:t>Downloaded license text file</x:t>
   </x:si>
   <x:si>
+    <x:t>ControlzEx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.3.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jan Karger, Bastian Schmidt, James Willock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://github.com/ControlzEx/ControlzEx</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://licenses.nuget.org/MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copyright © 2015 - 2020 Jan Karger, Bastian Schmidt, James Willock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIT License</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ControlzEx-ControlzEx-develop-LICENSE.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Lighty</x:t>
   </x:si>
   <x:si>
@@ -64,21 +94,51 @@
     <x:t>https://github.com/sourcechord/Lighty/blob/master/LICENSE</x:t>
   </x:si>
   <x:si>
-    <x:t>False</x:t>
-  </x:si>
-  <x:si>
     <x:t>Copyright 2016</x:t>
   </x:si>
   <x:si>
-    <x:t>MIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIT License</x:t>
-  </x:si>
-  <x:si>
     <x:t>sourcechord-Lighty-master-LICENSE.txt</x:t>
   </x:si>
   <x:si>
+    <x:t>log4net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.0.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Apache Software Foundation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Apache log4net</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://logging.apache.org/log4net/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://licenses.nuget.org/Apache-2.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copyright 2004-2017 The Apache Software Foundation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MahApps.Metro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.2.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jan Karger, Dennis Daume, Brendan Forster, Paul Jenkins, Jake Ginnivan, Alex Mitchell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://github.com/MahApps/MahApps.Metro</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Copyright © 2020 .NET Foundation and Contributors. All rights reserved.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MahApps-MahApps.Metro-develop-LICENSE.txt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Microsoft.CognitiveServices.Speech</x:t>
   </x:si>
   <x:si>
@@ -125,6 +185,18 @@
   </x:si>
   <x:si>
     <x:t>Windows 7 API Code Pack w/ XML Documentation - Shell</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft.Xaml.Behaviors.Wpf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://github.com/Microsoft/XamlBehaviorsWpf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>microsoft-XamlBehaviorsWpf-master-LICENSE.txt</x:t>
   </x:si>
   <x:si>
     <x:t>NAudio</x:t>
@@ -517,7 +589,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K6"/>
+  <x:dimension ref="A1:K10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -568,9 +640,6 @@
       <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -604,30 +673,39 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="I3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K3" s="0" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>31</x:v>
@@ -639,7 +717,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>34</x:v>
@@ -650,57 +728,179 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K5" s="0" t="s">
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>45</x:v>
+      <x:c r="H9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K9" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="J10" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="K10" s="0" t="s">
+        <x:v>69</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
